--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1148,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.14</v>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1566,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1604,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.11</v>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1642,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,254 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,26 +1026,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -820,26 +1064,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -848,6 +1092,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,290 +1500,6 @@
       </c>
       <c r="H3" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011706</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1534,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1330,26 +1574,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1368,26 +1612,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,7 +1666,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1462,26 +1706,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1140</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1500,254 +1744,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1140</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003719</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161126</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011706</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012864</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012865</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达标普医疗保健指数(QDII-LOF) 美元C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.22</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1761,144 +1777,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1091,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1368,138 +1593,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0715</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0715</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1574,26 +1667,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1612,26 +1705,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1706,26 +1799,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1744,26 +1837,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1772,6 +1865,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
+++ b/数据整理/stocks/其他/PFE-辉瑞制药.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,7 +602,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -611,8 +612,156 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +832,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1029</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +870,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1026</t>
+          <t>0.1217</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +908,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +946,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,6 +974,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +1541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +1673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1593,138 +1950,6 @@
       </c>
       <c r="H7" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0715</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0715</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1799,26 +2024,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1837,26 +2062,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>80.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.0715</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1931,26 +2156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1969,26 +2194,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0542</t>
+          <t>0.0578</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2004,51 +2229,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2068,17 +2293,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2086,7 +2311,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2106,17 +2331,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0542</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2124,6 +2349,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>